--- a/Export_conv_PP_Balmorel.xlsx
+++ b/Export_conv_PP_Balmorel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geipel\Documents\GitHub\EEG-policy modelling\EEG-Balmorel\scen_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geipel\Documents\GitHub\EEG-policy modelling\EEG-Balmorel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AM$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
